--- a/data/trans_camb/IP1003-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP1003-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 8,97</t>
+          <t>-3,83; 8,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 11,3</t>
+          <t>-2,82; 10,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 17,92</t>
+          <t>-0,87; 17,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,73; 3,95</t>
+          <t>-7,54; 4,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,21; -0,97</t>
+          <t>-10,68; -1,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,56; 3,29</t>
+          <t>-8,2; 4,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 4,7</t>
+          <t>-3,84; 4,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 2,81</t>
+          <t>-5,04; 3,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 8,81</t>
+          <t>-3,4; 8,68</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-55,62; 375,71</t>
+          <t>-58,47; 385,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-48,87; 467,01</t>
+          <t>-49,6; 401,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-29,48; 814,6</t>
+          <t>-36,11; 667,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-77,98; 99,36</t>
+          <t>-79,16; 118,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 175,67</t>
+          <t>-100,0; 33,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-89,39; 87,96</t>
+          <t>-86,73; 149,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-50,94; 111,81</t>
+          <t>-48,97; 110,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-66,79; 71,0</t>
+          <t>-68,29; 86,14</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-43,28; 197,18</t>
+          <t>-46,78; 194,89</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 1,29</t>
+          <t>-4,03; 1,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 0,72</t>
+          <t>-4,45; 0,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 3,13</t>
+          <t>-2,81; 3,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 1,77</t>
+          <t>-3,25; 1,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 1,77</t>
+          <t>-3,31; 1,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 3,05</t>
+          <t>-2,2; 3,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 0,56</t>
+          <t>-2,75; 0,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 0,42</t>
+          <t>-3,11; 0,4</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 2,4</t>
+          <t>-1,71; 2,19</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-46,28; 21,52</t>
+          <t>-45,81; 20,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-50,2; 12,89</t>
+          <t>-51,4; 9,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-31,48; 50,45</t>
+          <t>-32,74; 51,44</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-45,55; 43,23</t>
+          <t>-47,18; 43,81</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-41,72; 40,96</t>
+          <t>-46,98; 38,14</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-33,79; 69,48</t>
+          <t>-33,1; 70,01</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-39,68; 10,5</t>
+          <t>-36,81; 12,82</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-42,29; 8,22</t>
+          <t>-41,66; 7,64</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-23,16; 41,77</t>
+          <t>-23,56; 39,46</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 3,07</t>
+          <t>-5,34; 3,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 0,27</t>
+          <t>-7,54; 0,22</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 6,86</t>
+          <t>-2,92; 7,31</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 2,66</t>
+          <t>-6,03; 1,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 2,28</t>
+          <t>-5,52; 2,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 3,08</t>
+          <t>-5,57; 3,19</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 1,33</t>
+          <t>-4,49; 1,24</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 0,53</t>
+          <t>-5,11; 0,32</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 4,3</t>
+          <t>-2,53; 3,87</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-64,24; 79,1</t>
+          <t>-63,11; 86,92</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-80,6; 13,13</t>
+          <t>-82,75; 11,09</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-37,41; 153,88</t>
+          <t>-36,49; 170,89</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-69,76; 68,84</t>
+          <t>-69,09; 48,93</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-66,39; 51,68</t>
+          <t>-67,71; 60,28</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-66,8; 83,33</t>
+          <t>-66,44; 75,34</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-52,42; 34,1</t>
+          <t>-57,66; 28,56</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-64,26; 14,19</t>
+          <t>-65,74; 7,82</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-37,71; 87,83</t>
+          <t>-33,65; 76,4</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 1,45</t>
+          <t>-2,95; 1,46</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 0,41</t>
+          <t>-3,75; 0,12</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 3,92</t>
+          <t>-1,07; 3,75</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 0,6</t>
+          <t>-3,25; 0,87</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 0,5</t>
+          <t>-3,43; 0,37</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 1,87</t>
+          <t>-2,13; 1,91</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 0,4</t>
+          <t>-2,45; 0,41</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 0,07</t>
+          <t>-2,99; -0,14</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 2,26</t>
+          <t>-1,14; 2,16</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-36,48; 24,81</t>
+          <t>-37,8; 23,99</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-47,45; 7,34</t>
+          <t>-48,29; 2,31</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-13,52; 64,94</t>
+          <t>-13,68; 66,03</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-47,56; 12,78</t>
+          <t>-45,84; 18,49</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-46,41; 11,23</t>
+          <t>-49,3; 8,3</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-33,66; 38,56</t>
+          <t>-32,39; 40,13</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-33,33; 7,71</t>
+          <t>-33,95; 7,77</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-42,37; 0,97</t>
+          <t>-41,27; -2,37</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-14,76; 39,24</t>
+          <t>-16,45; 36,93</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP1003-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP1003-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,24</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-5,91</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-3,07</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,35</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>6,3</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,82</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,48; 3,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,07; -1,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,01; 3,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,73; 8,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,14; 11,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,82; 17,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,05; 4,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,23; 3,66</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,29; 8,28</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,95%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-84,08%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,68%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,33%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>66,69%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>125,21%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,14%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,14%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,27; 98,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 15,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,97; 103,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,91; 388,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,12; 502,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,45; 647,36</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,53; 111,87</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,01; 92,53</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,34; 214,43</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,53</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,35</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,43</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,24</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-5,91</t>
+          <t>-1,85</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,9</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>0,33</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 8,77</t>
+          <t>-3,08; 1,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 10,3</t>
+          <t>-3,21; 1,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 17,82</t>
+          <t>-2,39; 2,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 4,1</t>
+          <t>-3,64; 1,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,68; -1,56</t>
+          <t>-4,65; 0,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,2; 4,72</t>
+          <t>-2,65; 3,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 4,3</t>
+          <t>-2,76; 0,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 3,44</t>
+          <t>-3,21; 0,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 8,68</t>
+          <t>-1,66; 2,35</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>50,33%</t>
+          <t>-14,88%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>66,69%</t>
+          <t>-12,5%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>127,87%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-31,95%</t>
+          <t>-16,96%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-84,08%</t>
+          <t>-25,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-41,31%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>-16,35%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-17,14%</t>
+          <t>-20,23%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>32,95%</t>
+          <t>5,02%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-58,47; 385,02</t>
+          <t>-46,3; 42,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-49,6; 401,16</t>
+          <t>-47,68; 43,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-36,11; 667,48</t>
+          <t>-35,55; 68,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-79,16; 118,34</t>
+          <t>-44,51; 26,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 33,66</t>
+          <t>-55,17; 8,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-86,73; 149,49</t>
+          <t>-31,02; 56,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-48,97; 110,72</t>
+          <t>-37,2; 14,6</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-68,29; 86,14</t>
+          <t>-41,22; 8,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-46,78; 194,89</t>
+          <t>-22,05; 39,57</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,25</t>
+          <t>-1,82</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,85</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>-3,48</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>-2,5</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>0,51</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 1,19</t>
+          <t>-5,72; 2,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 0,57</t>
+          <t>-5,47; 2,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 3,12</t>
+          <t>-5,15; 3,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 1,71</t>
+          <t>-5,96; 2,96</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 1,64</t>
+          <t>-7,68; 0,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 3,06</t>
+          <t>-3,31; 6,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 0,76</t>
+          <t>-4,35; 1,58</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 0,4</t>
+          <t>-5,14; 0,19</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 2,19</t>
+          <t>-2,63; 4,38</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-16,96%</t>
+          <t>-29,46%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-25,0%</t>
+          <t>-23,84%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>-16,88%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-14,88%</t>
+          <t>-18,64%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-12,5%</t>
+          <t>-53,01%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>26,03%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-16,35%</t>
+          <t>-23,63%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-20,23%</t>
+          <t>-39,3%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>7,95%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-45,81; 20,19</t>
+          <t>-70,9; 56,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-51,4; 9,68</t>
+          <t>-66,95; 64,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-32,74; 51,44</t>
+          <t>-63,67; 83,71</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-47,18; 43,81</t>
+          <t>-64,19; 77,73</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-46,98; 38,14</t>
+          <t>-80,75; 17,19</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-33,1; 70,01</t>
+          <t>-38,91; 179,05</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-36,81; 12,82</t>
+          <t>-55,29; 34,09</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-41,66; 7,64</t>
+          <t>-66,06; 4,16</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-23,56; 39,46</t>
+          <t>-35,14; 94,86</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-3,48</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,89</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,82</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
+          <t>1,32</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
           <t>-1,03</t>
         </is>
       </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>-1,5</t>
-        </is>
-      </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-2,5</t>
+          <t>-1,58</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>0,52</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 3,32</t>
+          <t>-3,24; 0,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 0,22</t>
+          <t>-3,52; 0,41</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 7,31</t>
+          <t>-2,61; 1,67</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 1,77</t>
+          <t>-3,05; 1,39</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 2,3</t>
+          <t>-3,8; 0,45</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 3,19</t>
+          <t>-1,06; 3,95</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 1,24</t>
+          <t>-2,46; 0,54</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 0,32</t>
+          <t>-3,02; -0,11</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 3,87</t>
+          <t>-1,19; 2,25</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-18,64%</t>
+          <t>-21,26%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-53,01%</t>
+          <t>-23,55%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>28,82%</t>
+          <t>-7,41%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-29,46%</t>
+          <t>-11,72%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-23,84%</t>
+          <t>-25,12%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-16,66%</t>
+          <t>19,05%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-23,63%</t>
+          <t>-16,01%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-39,3%</t>
+          <t>-24,42%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>8,84%</t>
+          <t>8,01%</t>
         </is>
       </c>
     </row>
@@ -1439,282 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-63,11; 86,92</t>
+          <t>-46,57; 16,19</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-82,75; 11,09</t>
+          <t>-49,62; 9,86</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-36,49; 170,89</t>
+          <t>-37,57; 34,86</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-69,09; 48,93</t>
+          <t>-37,67; 23,59</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-67,71; 60,28</t>
+          <t>-47,16; 7,78</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-66,44; 75,34</t>
+          <t>-13,98; 68,52</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-57,66; 28,56</t>
+          <t>-34,43; 10,33</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-65,74; 7,82</t>
+          <t>-41,82; -1,02</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-33,65; 76,4</t>
+          <t>-16,73; 37,94</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-0,81</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-1,73</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>1,29</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-1,27</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-1,41</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>-0,29</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>-1,03</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>-1,57</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>0,55</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-2,95; 1,46</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-3,75; 0,12</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-1,07; 3,75</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-3,25; 0,87</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-3,43; 0,37</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-2,13; 1,91</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>-2,45; 0,41</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>-2,99; -0,14</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>-1,14; 2,16</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-11,71%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-25,05%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>18,62%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-21,26%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-23,55%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>-4,83%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>-16,0%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>-24,38%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>8,55%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-37,8; 23,99</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-48,29; 2,31</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-13,68; 66,03</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>-45,84; 18,49</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-49,3; 8,3</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-32,39; 40,13</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>-33,95; 7,77</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>-41,27; -2,37</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>-16,45; 36,93</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
